--- a/data/의사 국가시험 최종 합격자.xlsx
+++ b/data/의사 국가시험 최종 합격자.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eunhyeong\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fdew\Documents\GitHub\IITPMainProject\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{82FE03C9-6B14-4474-B1CA-264370847D18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F866822B-CDBD-490F-8B4F-57F95B69F547}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7812" yWindow="1644" windowWidth="17280" windowHeight="8916" xr2:uid="{3E25ACAE-C46A-4210-9BA1-CFB67B048BC4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{3E25ACAE-C46A-4210-9BA1-CFB67B048BC4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -470,15 +479,15 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.69921875" customWidth="1"/>
+    <col min="1" max="1" width="14.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -492,105 +501,105 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1">
-        <v>3210</v>
+        <v>3743</v>
       </c>
       <c r="C2" s="1">
-        <v>3025</v>
+        <v>3489</v>
       </c>
       <c r="D2">
-        <v>94.2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+        <v>93.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1">
-        <v>3307</v>
+        <v>3735</v>
       </c>
       <c r="C3" s="1">
-        <v>3115</v>
+        <v>3305</v>
       </c>
       <c r="D3">
-        <v>94.2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+        <v>88.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1">
-        <v>3373</v>
+        <v>4028</v>
       </c>
       <c r="C4" s="1">
-        <v>3204</v>
+        <v>3887</v>
       </c>
       <c r="D4">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+        <v>96.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1">
-        <v>3336</v>
+        <v>3750</v>
       </c>
       <c r="C5" s="1">
+        <v>3510</v>
+      </c>
+      <c r="D5">
+        <v>93.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1">
+        <v>3469</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3224</v>
+      </c>
+      <c r="D6">
+        <v>92.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1">
+        <v>3376</v>
+      </c>
+      <c r="C7" s="1">
         <v>3095</v>
       </c>
-      <c r="D5">
-        <v>92.8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1">
-        <v>3323</v>
-      </c>
-      <c r="C6" s="1">
-        <v>3106</v>
-      </c>
-      <c r="D6">
-        <v>93.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1">
-        <v>3392</v>
-      </c>
-      <c r="C7" s="1">
-        <v>3125</v>
-      </c>
       <c r="D7">
-        <v>94.6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+        <v>91.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1">
-        <v>3412</v>
+        <v>3446</v>
       </c>
       <c r="C8" s="1">
-        <v>3200</v>
+        <v>3208</v>
       </c>
       <c r="D8">
-        <v>93.8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+        <v>93.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -604,105 +613,108 @@
         <v>92.2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B10" s="1">
-        <v>3446</v>
+        <v>3412</v>
       </c>
       <c r="C10" s="1">
-        <v>3208</v>
+        <v>3200</v>
       </c>
       <c r="D10">
-        <v>93.1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+        <v>93.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B11" s="1">
-        <v>3376</v>
+        <v>3392</v>
       </c>
       <c r="C11" s="1">
+        <v>3125</v>
+      </c>
+      <c r="D11">
+        <v>94.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="1">
+        <v>3323</v>
+      </c>
+      <c r="C12" s="1">
+        <v>3106</v>
+      </c>
+      <c r="D12">
+        <v>93.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="1">
+        <v>3336</v>
+      </c>
+      <c r="C13" s="1">
         <v>3095</v>
       </c>
-      <c r="D11">
-        <v>91.7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1">
-        <v>3469</v>
-      </c>
-      <c r="C12" s="1">
-        <v>3224</v>
-      </c>
-      <c r="D12">
-        <v>92.9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1">
-        <v>3750</v>
-      </c>
-      <c r="C13" s="1">
-        <v>3510</v>
-      </c>
       <c r="D13">
-        <v>93.6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+        <v>92.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B14" s="1">
-        <v>4028</v>
+        <v>3373</v>
       </c>
       <c r="C14" s="1">
-        <v>3887</v>
+        <v>3204</v>
       </c>
       <c r="D14">
-        <v>96.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="B15" s="1">
-        <v>3735</v>
+        <v>3307</v>
       </c>
       <c r="C15" s="1">
-        <v>3305</v>
+        <v>3115</v>
       </c>
       <c r="D15">
-        <v>88.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+        <v>94.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="B16" s="1">
-        <v>3743</v>
+        <v>3210</v>
       </c>
       <c r="C16" s="1">
-        <v>3489</v>
+        <v>3025</v>
       </c>
       <c r="D16">
-        <v>93.2</v>
+        <v>94.2</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D17">
+    <sortCondition ref="A1"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
